--- a/datastatic/datasets/online/SDG1_Poverty_In_Work_Poverty_Rate_EUROSTAT_2014.xlsx
+++ b/datastatic/datasets/online/SDG1_Poverty_In_Work_Poverty_Rate_EUROSTAT_2014.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="Poverty_In Work_Poverty_Rate_EUROSTAT_2014.csv" sheetId="1" r:id="rId3"/>
+    <sheet state="visible" name="Poverty_In Work_Poverty_Rate_EU" sheetId="1" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr/>

--- a/datastatic/datasets/online/SDG1_Poverty_In_Work_Poverty_Rate_EUROSTAT_2014.xlsx
+++ b/datastatic/datasets/online/SDG1_Poverty_In_Work_Poverty_Rate_EUROSTAT_2014.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="87">
   <si>
     <t>original_title</t>
   </si>
@@ -52,7 +52,7 @@
     <t>long_indicator_description$en$text</t>
   </si>
   <si>
-    <t xml:space="preserve">The in-work poverty rate counts people, who have a full-time job, but are unable to make a living. At risk of poverty are those with an inocme below 60% of the national median after social transfers. This means, it counts individuals who are at risk of poverty even after working full time and potentially receiving (not enough) social benefits. The risk of in-work poverty is particularly high for single parents, young workers, temporarily unemployed and those with low education levels. </t>
+    <t xml:space="preserve">The in-work poverty rate counts people, who have a full-time job, but are unable to make a living. At risk of poverty are those with an income below 60% of the national median after social transfers. This means, it counts individuals who are at risk of poverty even after working full time and potentially receiving (not enough) social benefits. The risk of in-work poverty is particularly high for single parents, young workers, temporarily unemployed and those with low education levels. </t>
   </si>
   <si>
     <t>long_indicator_description$en$baseunit</t>
@@ -272,9 +272,6 @@
   </si>
   <si>
     <t>Serbia</t>
-  </si>
-  <si>
-    <t>Turkey</t>
   </si>
 </sst>
 </file>
@@ -284,7 +281,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -308,6 +305,11 @@
     </font>
     <font>
       <sz val="11.0"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -356,7 +358,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
@@ -401,6 +403,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="2" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="2" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -804,7 +809,9 @@
       <c r="A44" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="B44" s="14"/>
+      <c r="B44" s="15">
+        <v>5.5</v>
+      </c>
       <c r="C44" s="13">
         <v>5.5</v>
       </c>
@@ -1192,7 +1199,9 @@
       <c r="A68" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="B68" s="14"/>
+      <c r="B68" s="15">
+        <v>6.1</v>
+      </c>
       <c r="C68" s="13">
         <v>6.1</v>
       </c>
@@ -1224,19 +1233,6 @@
       </c>
       <c r="D70" s="14"/>
       <c r="E70" s="14"/>
-    </row>
-    <row r="71">
-      <c r="A71" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="B71" s="14"/>
-      <c r="C71" s="14"/>
-      <c r="D71" s="13">
-        <v>0.7</v>
-      </c>
-      <c r="E71" s="13">
-        <v>0.6</v>
-      </c>
     </row>
   </sheetData>
   <hyperlinks>

--- a/datastatic/datasets/online/SDG1_Poverty_In_Work_Poverty_Rate_EUROSTAT_2014.xlsx
+++ b/datastatic/datasets/online/SDG1_Poverty_In_Work_Poverty_Rate_EUROSTAT_2014.xlsx
@@ -415,7 +415,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/worksheetdrawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 

--- a/datastatic/datasets/online/SDG1_Poverty_In_Work_Poverty_Rate_EUROSTAT_2014.xlsx
+++ b/datastatic/datasets/online/SDG1_Poverty_In_Work_Poverty_Rate_EUROSTAT_2014.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="89">
   <si>
     <t>original_title</t>
   </si>
@@ -37,7 +37,7 @@
     <t>short_indicator_description$de</t>
   </si>
   <si>
-    <t>Anteil der Vollzeiterwerbstätigen, die einem Armutsrisiko ausgesetzt sind.</t>
+    <t>Anteil der Vollzeitbeschäftigten, die einem Armutsrisiko ausgesetzt sind.</t>
   </si>
   <si>
     <t>short_indicator_description$en</t>
@@ -64,7 +64,7 @@
     <t>long_indicator_description$de$text</t>
   </si>
   <si>
-    <t xml:space="preserve">Armutsrate trotz Erwerbstätigkeit zählt jene Personen, die vollzeit arbeiten und trotzdem an der Armutsgrenze sind. Die Armutsgrenze heißt hierbei ein verfügbares Einkommen nach allen Abzügen und Zuschüssen von 60% des nationalen Mittelwerts. Das bedeutet, es werden nur jene Personen gezählt, die bereits vollzeit arbeiten, möglicherweise (nicht ausreichend) Sozialhilfe bekommen und trotzdem arm sind. Besonders betroffen sind Alleinerziehende, junge Erwerbstätige, Menschen mit befristeter Anstellung und Menschen mit niedrigem Bildungsniveau. </t>
+    <t xml:space="preserve">Arbeits-Armutsgefährdungsquote bei Vollzeitbeschäftigung zählt jene Personen, die vollzeit arbeiten und trotzdem an der Armutsgrenze sind. Die Armutsgrenze ist hierbei ein verfügbares Einkommen nach allen Abzügen und Zuschüssen von 60% des nationalen Mittelwerts. Das bedeutet, es werden nur jene Personen gezählt, die bereits vollzeit arbeiten, möglicherweise (nicht ausreichend) Sozialhilfe bekommen und trotzdem arm sind. Besonders betroffen sind Alleinerziehende, junge Erwerbstätige, Menschen mit befristeter Anstellung und Menschen mit niedrigem Bildungsniveau. </t>
   </si>
   <si>
     <t>long_indicator_description$de$baseunit</t>
@@ -157,7 +157,7 @@
     <t>source$link</t>
   </si>
   <si>
-    <t>http://ec.europa.eu/eurostat/web/income-and-living-conditions/data/database</t>
+    <t>http://appsso.eurostat.ec.europa.eu/nui/show.do?dataset=ilc_iw07&amp;lang=en</t>
   </si>
   <si>
     <t>source$value</t>
@@ -172,58 +172,76 @@
     <t>source$license</t>
   </si>
   <si>
+    <t>Eurostat has a policy of encouraging free re-use of its data, both for non-commercial and commercial purposes.</t>
+  </si>
+  <si>
     <t>countries</t>
   </si>
   <si>
+    <t>Austria</t>
+  </si>
+  <si>
     <t>Belgium</t>
   </si>
   <si>
     <t>Bulgaria</t>
   </si>
   <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
+    <t>Cyprus</t>
+  </si>
+  <si>
     <t>Czech Republic</t>
   </si>
   <si>
+    <t>Germany</t>
+  </si>
+  <si>
     <t>Denmark</t>
   </si>
   <si>
-    <t>Germany</t>
-  </si>
-  <si>
     <t>Estonia</t>
   </si>
   <si>
+    <t>Greece</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>Finland</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>Croatia</t>
+  </si>
+  <si>
+    <t>Hungary</t>
+  </si>
+  <si>
     <t>Ireland</t>
   </si>
   <si>
-    <t>Greece</t>
-  </si>
-  <si>
-    <t>Spain</t>
-  </si>
-  <si>
-    <t>France</t>
-  </si>
-  <si>
-    <t>Croatia</t>
+    <t>Iceland</t>
   </si>
   <si>
     <t>Italy</t>
   </si>
   <si>
-    <t>Cyprus</t>
+    <t>Lithuania</t>
+  </si>
+  <si>
+    <t>Luxembourg</t>
   </si>
   <si>
     <t>Latvia</t>
   </si>
   <si>
-    <t>Lithuania</t>
-  </si>
-  <si>
-    <t>Luxembourg</t>
-  </si>
-  <si>
-    <t>Hungary</t>
+    <t>Macedonia</t>
   </si>
   <si>
     <t>Malta</t>
@@ -232,7 +250,7 @@
     <t>Netherlands</t>
   </si>
   <si>
-    <t>Austria</t>
+    <t>Norway</t>
   </si>
   <si>
     <t>Poland</t>
@@ -244,34 +262,22 @@
     <t>Romania</t>
   </si>
   <si>
+    <t>Serbia</t>
+  </si>
+  <si>
+    <t>Sweden</t>
+  </si>
+  <si>
     <t>Slovenia</t>
   </si>
   <si>
     <t>Slovakia</t>
   </si>
   <si>
-    <t>Finland</t>
-  </si>
-  <si>
-    <t>Sweden</t>
+    <t>Turkey</t>
   </si>
   <si>
     <t>UK</t>
-  </si>
-  <si>
-    <t>Iceland</t>
-  </si>
-  <si>
-    <t>Norway</t>
-  </si>
-  <si>
-    <t>Switzerland</t>
-  </si>
-  <si>
-    <t>Macedonia</t>
-  </si>
-  <si>
-    <t>Serbia</t>
   </si>
 </sst>
 </file>
@@ -281,7 +287,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="5">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -303,17 +309,8 @@
       <u/>
       <color rgb="FF0000FF"/>
     </font>
-    <font>
-      <sz val="11.0"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -330,12 +327,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFC9DAF8"/>
         <bgColor rgb="FFC9DAF8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF99CCFF"/>
-        <bgColor rgb="FF99CCFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -395,17 +386,17 @@
     <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="2" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="2" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="2" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="2" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="2" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -415,7 +406,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/worksheetdrawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
@@ -609,7 +600,7 @@
         <v>37</v>
       </c>
       <c r="B25" s="9">
-        <v>42694.0</v>
+        <v>42795.0</v>
       </c>
     </row>
     <row r="26">
@@ -683,10 +674,13 @@
       <c r="A35" s="6" t="s">
         <v>52</v>
       </c>
+      <c r="B35" s="2" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -698,541 +692,1391 @@
     </row>
     <row r="37">
       <c r="A37" s="12"/>
-      <c r="B37" s="12">
+      <c r="B37" s="13">
         <v>2015.0</v>
       </c>
-      <c r="C37" s="12">
+      <c r="C37" s="13">
         <v>2014.0</v>
       </c>
-      <c r="D37" s="12">
+      <c r="D37" s="13">
         <v>2013.0</v>
       </c>
-      <c r="E37" s="12">
+      <c r="E37" s="13">
         <v>2012.0</v>
+      </c>
+      <c r="F37" s="13">
+        <v>2011.0</v>
+      </c>
+      <c r="G37" s="13">
+        <v>2010.0</v>
+      </c>
+      <c r="H37" s="13">
+        <v>2009.0</v>
+      </c>
+      <c r="I37" s="13">
+        <v>2008.0</v>
+      </c>
+      <c r="J37" s="13">
+        <v>2007.0</v>
+      </c>
+      <c r="K37" s="13">
+        <v>2006.0</v>
+      </c>
+      <c r="L37" s="13">
+        <v>2005.0</v>
+      </c>
+      <c r="M37" s="13">
+        <v>2004.0</v>
+      </c>
+      <c r="N37" s="13">
+        <v>2003.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="B38" s="13">
-        <v>7.7</v>
-      </c>
-      <c r="C38" s="13">
-        <v>8.7</v>
-      </c>
-      <c r="D38" s="13">
-        <v>8.7</v>
-      </c>
-      <c r="E38" s="13">
-        <v>10.0</v>
+        <v>55</v>
+      </c>
+      <c r="B38" s="14">
+        <v>5.9</v>
+      </c>
+      <c r="C38" s="14">
+        <v>5.6</v>
+      </c>
+      <c r="D38" s="14">
+        <v>6.8</v>
+      </c>
+      <c r="E38" s="14">
+        <v>6.4</v>
+      </c>
+      <c r="F38" s="13">
+        <v>6.3</v>
+      </c>
+      <c r="G38" s="13">
+        <v>6.4</v>
+      </c>
+      <c r="H38" s="13">
+        <v>6.6</v>
+      </c>
+      <c r="I38" s="12">
+        <v>7.5</v>
+      </c>
+      <c r="J38" s="13">
+        <v>5.3</v>
+      </c>
+      <c r="K38" s="13">
+        <v>5.3</v>
+      </c>
+      <c r="L38" s="13">
+        <v>5.9</v>
+      </c>
+      <c r="M38" s="13">
+        <v>6.1</v>
+      </c>
+      <c r="N38" s="13">
+        <v>7.5</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
+        <v>56</v>
+      </c>
+      <c r="B39" s="14">
+        <v>3.7</v>
+      </c>
+      <c r="C39" s="14">
+        <v>3.9</v>
+      </c>
+      <c r="D39" s="14">
+        <v>3.5</v>
+      </c>
+      <c r="E39" s="14">
+        <v>3.4</v>
+      </c>
+      <c r="F39" s="13">
+        <v>3.1</v>
+      </c>
+      <c r="G39" s="13">
+        <v>3.9</v>
+      </c>
+      <c r="H39" s="13">
+        <v>3.8</v>
+      </c>
+      <c r="I39" s="13">
+        <v>3.4</v>
+      </c>
+      <c r="J39" s="13">
+        <v>3.5</v>
+      </c>
+      <c r="K39" s="13">
+        <v>3.6</v>
+      </c>
+      <c r="L39" s="13">
+        <v>3.3</v>
+      </c>
+      <c r="M39" s="13">
+        <v>3.4</v>
+      </c>
+      <c r="N39" s="13">
+        <v>6.2</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="B40" s="13">
-        <v>5.9</v>
-      </c>
-      <c r="C40" s="13">
-        <v>7.2</v>
-      </c>
-      <c r="D40" s="13">
-        <v>4.2</v>
-      </c>
-      <c r="E40" s="13">
+        <v>57</v>
+      </c>
+      <c r="B40" s="14">
+        <v>6.7</v>
+      </c>
+      <c r="C40" s="14">
+        <v>8.1</v>
+      </c>
+      <c r="D40" s="14">
+        <v>6.4</v>
+      </c>
+      <c r="E40" s="14">
+        <v>6.6</v>
+      </c>
+      <c r="F40" s="13">
         <v>7.0</v>
       </c>
+      <c r="G40" s="13">
+        <v>6.4</v>
+      </c>
+      <c r="H40" s="13">
+        <v>6.2</v>
+      </c>
+      <c r="I40" s="13">
+        <v>6.3</v>
+      </c>
+      <c r="J40" s="13">
+        <v>5.1</v>
+      </c>
+      <c r="K40" s="13">
+        <v>4.5</v>
+      </c>
+      <c r="L40" s="12"/>
+      <c r="M40" s="12"/>
+      <c r="N40" s="12"/>
     </row>
     <row r="41">
       <c r="A41" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="B41" s="13">
-        <v>17.7</v>
-      </c>
-      <c r="C41" s="13">
-        <v>12.8</v>
-      </c>
-      <c r="D41" s="13">
-        <v>8.1</v>
-      </c>
-      <c r="E41" s="13">
-        <v>8.0</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="B41" s="15"/>
+      <c r="C41" s="15">
+        <v>5.2</v>
+      </c>
+      <c r="D41" s="14">
+        <v>6.6</v>
+      </c>
+      <c r="E41" s="14">
+        <v>7.4</v>
+      </c>
+      <c r="F41" s="13">
+        <v>6.4</v>
+      </c>
+      <c r="G41" s="13">
+        <v>6.4</v>
+      </c>
+      <c r="H41" s="13">
+        <v>6.7</v>
+      </c>
+      <c r="I41" s="13">
+        <v>7.6</v>
+      </c>
+      <c r="J41" s="13">
+        <v>6.7</v>
+      </c>
+      <c r="K41" s="12"/>
+      <c r="L41" s="12"/>
+      <c r="M41" s="12"/>
+      <c r="N41" s="12"/>
     </row>
     <row r="42">
       <c r="A42" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="B42" s="13">
-        <v>11.5</v>
-      </c>
-      <c r="C42" s="13">
-        <v>10.5</v>
-      </c>
-      <c r="D42" s="13">
-        <v>8.6</v>
-      </c>
-      <c r="E42" s="13">
+        <v>59</v>
+      </c>
+      <c r="B42" s="14">
+        <v>7.6</v>
+      </c>
+      <c r="C42" s="14">
+        <v>6.3</v>
+      </c>
+      <c r="D42" s="14">
+        <v>7.8</v>
+      </c>
+      <c r="E42" s="14">
         <v>6.9</v>
       </c>
+      <c r="F42" s="13">
+        <v>6.7</v>
+      </c>
+      <c r="G42" s="13">
+        <v>7.2</v>
+      </c>
+      <c r="H42" s="13">
+        <v>6.0</v>
+      </c>
+      <c r="I42" s="12">
+        <v>5.8</v>
+      </c>
+      <c r="J42" s="13">
+        <v>5.7</v>
+      </c>
+      <c r="K42" s="13">
+        <v>6.2</v>
+      </c>
+      <c r="L42" s="13">
+        <v>6.0</v>
+      </c>
+      <c r="M42" s="12"/>
+      <c r="N42" s="12"/>
     </row>
     <row r="43">
       <c r="A43" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="B43" s="13">
-        <v>10.9</v>
-      </c>
-      <c r="C43" s="13">
-        <v>24.7</v>
-      </c>
-      <c r="D43" s="13">
-        <v>7.2</v>
-      </c>
-      <c r="E43" s="13">
-        <v>6.3</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="B43" s="14">
+        <v>3.8</v>
+      </c>
+      <c r="C43" s="14">
+        <v>3.3</v>
+      </c>
+      <c r="D43" s="14">
+        <v>3.5</v>
+      </c>
+      <c r="E43" s="14">
+        <v>4.2</v>
+      </c>
+      <c r="F43" s="13">
+        <v>3.8</v>
+      </c>
+      <c r="G43" s="13">
+        <v>3.4</v>
+      </c>
+      <c r="H43" s="13">
+        <v>2.9</v>
+      </c>
+      <c r="I43" s="13">
+        <v>3.4</v>
+      </c>
+      <c r="J43" s="13">
+        <v>3.2</v>
+      </c>
+      <c r="K43" s="13">
+        <v>3.2</v>
+      </c>
+      <c r="L43" s="13">
+        <v>3.0</v>
+      </c>
+      <c r="M43" s="12"/>
+      <c r="N43" s="12"/>
     </row>
     <row r="44">
       <c r="A44" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="B44" s="15">
-        <v>5.5</v>
-      </c>
-      <c r="C44" s="13">
-        <v>5.5</v>
-      </c>
-      <c r="D44" s="13">
-        <v>4.4</v>
-      </c>
-      <c r="E44" s="13">
-        <v>6.5</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="B44" s="14">
+        <v>7.1</v>
+      </c>
+      <c r="C44" s="14">
+        <v>7.5</v>
+      </c>
+      <c r="D44" s="14">
+        <v>6.3</v>
+      </c>
+      <c r="E44" s="14">
+        <v>5.7</v>
+      </c>
+      <c r="F44" s="13">
+        <v>6.1</v>
+      </c>
+      <c r="G44" s="13">
+        <v>5.4</v>
+      </c>
+      <c r="H44" s="13">
+        <v>5.1</v>
+      </c>
+      <c r="I44" s="13">
+        <v>5.4</v>
+      </c>
+      <c r="J44" s="13">
+        <v>6.1</v>
+      </c>
+      <c r="K44" s="13">
+        <v>4.0</v>
+      </c>
+      <c r="L44" s="13">
+        <v>3.5</v>
+      </c>
+      <c r="M44" s="12"/>
+      <c r="N44" s="12"/>
     </row>
     <row r="45">
       <c r="A45" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="B45" s="13">
-        <v>10.9</v>
-      </c>
-      <c r="C45" s="13">
-        <v>12.2</v>
-      </c>
-      <c r="D45" s="13">
-        <v>19.7</v>
-      </c>
-      <c r="E45" s="13">
-        <v>17.7</v>
+        <v>62</v>
+      </c>
+      <c r="B45" s="14">
+        <v>4.0</v>
+      </c>
+      <c r="C45" s="14">
+        <v>3.5</v>
+      </c>
+      <c r="D45" s="14">
+        <v>4.2</v>
+      </c>
+      <c r="E45" s="14">
+        <v>4.4</v>
+      </c>
+      <c r="F45" s="12">
+        <v>5.3</v>
+      </c>
+      <c r="G45" s="13">
+        <v>5.1</v>
+      </c>
+      <c r="H45" s="13">
+        <v>5.2</v>
+      </c>
+      <c r="I45" s="13">
+        <v>4.5</v>
+      </c>
+      <c r="J45" s="13">
+        <v>3.7</v>
+      </c>
+      <c r="K45" s="13">
+        <v>4.1</v>
+      </c>
+      <c r="L45" s="13">
+        <v>4.2</v>
+      </c>
+      <c r="M45" s="13">
+        <v>4.3</v>
+      </c>
+      <c r="N45" s="13">
+        <v>3.9</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="B46" s="13">
-        <v>19.4</v>
-      </c>
-      <c r="C46" s="13">
-        <v>26.6</v>
-      </c>
-      <c r="D46" s="13">
-        <v>23.4</v>
-      </c>
-      <c r="E46" s="13">
-        <v>21.4</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="B46" s="14">
+        <v>8.9</v>
+      </c>
+      <c r="C46" s="15">
+        <v>10.5</v>
+      </c>
+      <c r="D46" s="14">
+        <v>6.4</v>
+      </c>
+      <c r="E46" s="14">
+        <v>7.1</v>
+      </c>
+      <c r="F46" s="13">
+        <v>7.0</v>
+      </c>
+      <c r="G46" s="13">
+        <v>5.5</v>
+      </c>
+      <c r="H46" s="13">
+        <v>6.9</v>
+      </c>
+      <c r="I46" s="13">
+        <v>6.9</v>
+      </c>
+      <c r="J46" s="13">
+        <v>7.2</v>
+      </c>
+      <c r="K46" s="13">
+        <v>6.7</v>
+      </c>
+      <c r="L46" s="13">
+        <v>6.5</v>
+      </c>
+      <c r="M46" s="13">
+        <v>7.3</v>
+      </c>
+      <c r="N46" s="12"/>
     </row>
     <row r="47">
       <c r="A47" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="B47" s="13">
-        <v>14.1</v>
-      </c>
-      <c r="C47" s="13">
+        <v>64</v>
+      </c>
+      <c r="B47" s="14">
+        <v>11.6</v>
+      </c>
+      <c r="C47" s="14">
+        <v>11.9</v>
+      </c>
+      <c r="D47" s="14">
+        <v>10.7</v>
+      </c>
+      <c r="E47" s="14">
+        <v>13.4</v>
+      </c>
+      <c r="F47" s="13">
+        <v>10.4</v>
+      </c>
+      <c r="G47" s="13">
+        <v>11.7</v>
+      </c>
+      <c r="H47" s="13">
+        <v>12.5</v>
+      </c>
+      <c r="I47" s="13">
+        <v>13.5</v>
+      </c>
+      <c r="J47" s="13">
+        <v>12.9</v>
+      </c>
+      <c r="K47" s="13">
+        <v>12.7</v>
+      </c>
+      <c r="L47" s="13">
+        <v>12.0</v>
+      </c>
+      <c r="M47" s="13">
         <v>11.8</v>
       </c>
-      <c r="D47" s="13">
-        <v>10.1</v>
-      </c>
-      <c r="E47" s="13">
-        <v>11.6</v>
+      <c r="N47" s="13">
+        <v>12.5</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="B48" s="13">
-        <v>5.2</v>
-      </c>
-      <c r="C48" s="13">
-        <v>2.0</v>
-      </c>
-      <c r="D48" s="13">
-        <v>3.6</v>
-      </c>
-      <c r="E48" s="13">
-        <v>7.5</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="B48" s="14">
+        <v>10.3</v>
+      </c>
+      <c r="C48" s="14">
+        <v>10.2</v>
+      </c>
+      <c r="D48" s="14">
+        <v>8.9</v>
+      </c>
+      <c r="E48" s="14">
+        <v>8.7</v>
+      </c>
+      <c r="F48" s="13">
+        <v>9.3</v>
+      </c>
+      <c r="G48" s="13">
+        <v>9.2</v>
+      </c>
+      <c r="H48" s="13">
+        <v>9.6</v>
+      </c>
+      <c r="I48" s="12">
+        <v>9.4</v>
+      </c>
+      <c r="J48" s="13">
+        <v>9.7</v>
+      </c>
+      <c r="K48" s="13">
+        <v>9.7</v>
+      </c>
+      <c r="L48" s="13">
+        <v>10.1</v>
+      </c>
+      <c r="M48" s="13">
+        <v>9.9</v>
+      </c>
+      <c r="N48" s="12"/>
     </row>
     <row r="49">
       <c r="A49" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="B49" s="13">
-        <v>22.8</v>
-      </c>
-      <c r="C49" s="13">
-        <v>25.1</v>
-      </c>
-      <c r="D49" s="13">
-        <v>24.6</v>
-      </c>
-      <c r="E49" s="13">
-        <v>22.1</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="B49" s="14">
+        <v>2.9</v>
+      </c>
+      <c r="C49" s="14">
+        <v>3.1</v>
+      </c>
+      <c r="D49" s="14">
+        <v>2.7</v>
+      </c>
+      <c r="E49" s="14">
+        <v>3.0</v>
+      </c>
+      <c r="F49" s="13">
+        <v>3.4</v>
+      </c>
+      <c r="G49" s="13">
+        <v>3.0</v>
+      </c>
+      <c r="H49" s="13">
+        <v>2.9</v>
+      </c>
+      <c r="I49" s="13">
+        <v>3.9</v>
+      </c>
+      <c r="J49" s="13">
+        <v>3.4</v>
+      </c>
+      <c r="K49" s="13">
+        <v>3.4</v>
+      </c>
+      <c r="L49" s="13">
+        <v>2.9</v>
+      </c>
+      <c r="M49" s="13">
+        <v>3.4</v>
+      </c>
+      <c r="N49" s="12"/>
     </row>
     <row r="50">
       <c r="A50" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="B50" s="13">
-        <v>14.5</v>
-      </c>
-      <c r="C50" s="13">
-        <v>14.2</v>
-      </c>
-      <c r="D50" s="13">
-        <v>18.3</v>
-      </c>
-      <c r="E50" s="13">
-        <v>14.7</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="B50" s="14">
+        <v>6.0</v>
+      </c>
+      <c r="C50" s="14">
+        <v>6.3</v>
+      </c>
+      <c r="D50" s="14">
+        <v>5.9</v>
+      </c>
+      <c r="E50" s="14">
+        <v>6.6</v>
+      </c>
+      <c r="F50" s="13">
+        <v>5.9</v>
+      </c>
+      <c r="G50" s="13">
+        <v>5.2</v>
+      </c>
+      <c r="H50" s="13">
+        <v>5.3</v>
+      </c>
+      <c r="I50" s="12">
+        <v>5.3</v>
+      </c>
+      <c r="J50" s="13">
+        <v>5.3</v>
+      </c>
+      <c r="K50" s="13">
+        <v>5.1</v>
+      </c>
+      <c r="L50" s="13">
+        <v>5.3</v>
+      </c>
+      <c r="M50" s="13">
+        <v>4.4</v>
+      </c>
+      <c r="N50" s="12"/>
     </row>
     <row r="51">
       <c r="A51" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="B51" s="13">
-        <v>16.4</v>
-      </c>
-      <c r="C51" s="13">
-        <v>10.6</v>
-      </c>
-      <c r="D51" s="13">
-        <v>1.7</v>
-      </c>
-      <c r="E51" s="13">
-        <v>3.4</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="B51" s="14">
+        <v>5.4</v>
+      </c>
+      <c r="C51" s="14">
+        <v>5.5</v>
+      </c>
+      <c r="D51" s="14">
+        <v>5.3</v>
+      </c>
+      <c r="E51" s="14">
+        <v>5.6</v>
+      </c>
+      <c r="F51" s="13">
+        <v>5.9</v>
+      </c>
+      <c r="G51" s="13">
+        <v>5.9</v>
+      </c>
+      <c r="H51" s="12"/>
+      <c r="I51" s="12"/>
+      <c r="J51" s="12"/>
+      <c r="K51" s="12"/>
+      <c r="L51" s="12"/>
+      <c r="M51" s="12"/>
+      <c r="N51" s="12"/>
     </row>
     <row r="52">
       <c r="A52" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="B52" s="13">
-        <v>1.8</v>
-      </c>
-      <c r="C52" s="13">
-        <v>2.2</v>
-      </c>
-      <c r="D52" s="14"/>
-      <c r="E52" s="13">
-        <v>6.4</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="B52" s="14">
+        <v>8.4</v>
+      </c>
+      <c r="C52" s="14">
+        <v>5.4</v>
+      </c>
+      <c r="D52" s="14">
+        <v>5.8</v>
+      </c>
+      <c r="E52" s="14">
+        <v>4.7</v>
+      </c>
+      <c r="F52" s="13">
+        <v>4.9</v>
+      </c>
+      <c r="G52" s="13">
+        <v>4.3</v>
+      </c>
+      <c r="H52" s="13">
+        <v>5.2</v>
+      </c>
+      <c r="I52" s="13">
+        <v>4.9</v>
+      </c>
+      <c r="J52" s="13">
+        <v>5.1</v>
+      </c>
+      <c r="K52" s="13">
+        <v>6.2</v>
+      </c>
+      <c r="L52" s="13">
+        <v>6.7</v>
+      </c>
+      <c r="M52" s="12"/>
+      <c r="N52" s="12"/>
     </row>
     <row r="53">
       <c r="A53" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="B53" s="13">
-        <v>13.0</v>
-      </c>
-      <c r="C53" s="13">
-        <v>11.8</v>
-      </c>
-      <c r="D53" s="13">
-        <v>13.5</v>
-      </c>
-      <c r="E53" s="13">
-        <v>12.5</v>
+        <v>70</v>
+      </c>
+      <c r="B53" s="14">
+        <v>2.9</v>
+      </c>
+      <c r="C53" s="14">
+        <v>3.0</v>
+      </c>
+      <c r="D53" s="14">
+        <v>3.1</v>
+      </c>
+      <c r="E53" s="14">
+        <v>3.4</v>
+      </c>
+      <c r="F53" s="13">
+        <v>3.5</v>
+      </c>
+      <c r="G53" s="13">
+        <v>5.1</v>
+      </c>
+      <c r="H53" s="13">
+        <v>4.2</v>
+      </c>
+      <c r="I53" s="13">
+        <v>4.6</v>
+      </c>
+      <c r="J53" s="13">
+        <v>3.8</v>
+      </c>
+      <c r="K53" s="13">
+        <v>4.0</v>
+      </c>
+      <c r="L53" s="13">
+        <v>4.6</v>
+      </c>
+      <c r="M53" s="13">
+        <v>5.1</v>
+      </c>
+      <c r="N53" s="13">
+        <v>6.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="B54" s="13">
-        <v>10.1</v>
-      </c>
-      <c r="C54" s="13">
-        <v>3.3</v>
-      </c>
-      <c r="D54" s="13">
-        <v>3.6</v>
-      </c>
-      <c r="E54" s="13">
-        <v>7.9</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="B54" s="14">
+        <v>4.8</v>
+      </c>
+      <c r="C54" s="14">
+        <v>3.2</v>
+      </c>
+      <c r="D54" s="14">
+        <v>4.1</v>
+      </c>
+      <c r="E54" s="14">
+        <v>3.7</v>
+      </c>
+      <c r="F54" s="13">
+        <v>4.0</v>
+      </c>
+      <c r="G54" s="13">
+        <v>4.3</v>
+      </c>
+      <c r="H54" s="13">
+        <v>5.8</v>
+      </c>
+      <c r="I54" s="13">
+        <v>5.2</v>
+      </c>
+      <c r="J54" s="13">
+        <v>6.0</v>
+      </c>
+      <c r="K54" s="13">
+        <v>5.7</v>
+      </c>
+      <c r="L54" s="13">
+        <v>6.5</v>
+      </c>
+      <c r="M54" s="13">
+        <v>6.0</v>
+      </c>
+      <c r="N54" s="12"/>
     </row>
     <row r="55">
       <c r="A55" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="B55" s="13">
-        <v>9.1</v>
-      </c>
-      <c r="C55" s="13">
-        <v>7.2</v>
-      </c>
-      <c r="D55" s="13">
-        <v>2.5</v>
-      </c>
-      <c r="E55" s="13">
-        <v>1.9</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="B55" s="14">
+        <v>9.8</v>
+      </c>
+      <c r="C55" s="14">
+        <v>9.6</v>
+      </c>
+      <c r="D55" s="14">
+        <v>9.3</v>
+      </c>
+      <c r="E55" s="14">
+        <v>9.3</v>
+      </c>
+      <c r="F55" s="13">
+        <v>9.5</v>
+      </c>
+      <c r="G55" s="13">
+        <v>8.6</v>
+      </c>
+      <c r="H55" s="13">
+        <v>9.0</v>
+      </c>
+      <c r="I55" s="13">
+        <v>8.4</v>
+      </c>
+      <c r="J55" s="13">
+        <v>8.5</v>
+      </c>
+      <c r="K55" s="13">
+        <v>8.3</v>
+      </c>
+      <c r="L55" s="13">
+        <v>8.2</v>
+      </c>
+      <c r="M55" s="13">
+        <v>8.4</v>
+      </c>
+      <c r="N55" s="12"/>
     </row>
     <row r="56">
       <c r="A56" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="B56" s="13">
-        <v>12.7</v>
-      </c>
-      <c r="C56" s="13">
+        <v>73</v>
+      </c>
+      <c r="B56" s="14">
+        <v>8.6</v>
+      </c>
+      <c r="C56" s="14">
+        <v>6.8</v>
+      </c>
+      <c r="D56" s="14">
+        <v>7.6</v>
+      </c>
+      <c r="E56" s="14">
+        <v>5.8</v>
+      </c>
+      <c r="F56" s="13">
+        <v>8.6</v>
+      </c>
+      <c r="G56" s="13">
+        <v>11.4</v>
+      </c>
+      <c r="H56" s="13">
+        <v>8.9</v>
+      </c>
+      <c r="I56" s="13">
+        <v>8.3</v>
+      </c>
+      <c r="J56" s="13">
         <v>6.9</v>
       </c>
-      <c r="D56" s="13">
-        <v>6.1</v>
-      </c>
-      <c r="E56" s="13">
-        <v>5.6</v>
-      </c>
+      <c r="K56" s="13">
+        <v>9.3</v>
+      </c>
+      <c r="L56" s="13">
+        <v>7.8</v>
+      </c>
+      <c r="M56" s="12"/>
+      <c r="N56" s="12"/>
     </row>
     <row r="57">
       <c r="A57" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="B57" s="13">
-        <v>18.7</v>
-      </c>
-      <c r="C57" s="13">
-        <v>17.9</v>
-      </c>
-      <c r="D57" s="13">
-        <v>16.9</v>
-      </c>
-      <c r="E57" s="13">
-        <v>19.8</v>
+        <v>74</v>
+      </c>
+      <c r="B57" s="14">
+        <v>10.0</v>
+      </c>
+      <c r="C57" s="14">
+        <v>9.9</v>
+      </c>
+      <c r="D57" s="14">
+        <v>10.1</v>
+      </c>
+      <c r="E57" s="14">
+        <v>9.0</v>
+      </c>
+      <c r="F57" s="13">
+        <v>8.6</v>
+      </c>
+      <c r="G57" s="13">
+        <v>10.0</v>
+      </c>
+      <c r="H57" s="13">
+        <v>9.0</v>
+      </c>
+      <c r="I57" s="13">
+        <v>8.5</v>
+      </c>
+      <c r="J57" s="13">
+        <v>8.7</v>
+      </c>
+      <c r="K57" s="13">
+        <v>9.0</v>
+      </c>
+      <c r="L57" s="13">
+        <v>8.9</v>
+      </c>
+      <c r="M57" s="13">
+        <v>7.9</v>
+      </c>
+      <c r="N57" s="13">
+        <v>6.8</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="B58" s="14"/>
-      <c r="C58" s="14"/>
-      <c r="D58" s="14"/>
-      <c r="E58" s="14"/>
+        <v>75</v>
+      </c>
+      <c r="B58" s="14">
+        <v>8.2</v>
+      </c>
+      <c r="C58" s="14">
+        <v>6.8</v>
+      </c>
+      <c r="D58" s="14">
+        <v>7.7</v>
+      </c>
+      <c r="E58" s="14">
+        <v>7.1</v>
+      </c>
+      <c r="F58" s="13">
+        <v>7.9</v>
+      </c>
+      <c r="G58" s="13">
+        <v>7.9</v>
+      </c>
+      <c r="H58" s="13">
+        <v>9.3</v>
+      </c>
+      <c r="I58" s="13">
+        <v>9.3</v>
+      </c>
+      <c r="J58" s="13">
+        <v>8.0</v>
+      </c>
+      <c r="K58" s="13">
+        <v>9.7</v>
+      </c>
+      <c r="L58" s="13">
+        <v>8.0</v>
+      </c>
+      <c r="M58" s="12"/>
+      <c r="N58" s="12"/>
     </row>
     <row r="59">
       <c r="A59" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="B59" s="13">
+        <v>76</v>
+      </c>
+      <c r="B59" s="14">
+        <v>8.3</v>
+      </c>
+      <c r="C59" s="14">
         <v>9.0</v>
       </c>
-      <c r="C59" s="13">
-        <v>9.1</v>
-      </c>
-      <c r="D59" s="13">
-        <v>14.2</v>
-      </c>
-      <c r="E59" s="13">
-        <v>6.7</v>
-      </c>
+      <c r="D59" s="14">
+        <v>10.9</v>
+      </c>
+      <c r="E59" s="14">
+        <v>10.4</v>
+      </c>
+      <c r="F59" s="12"/>
+      <c r="G59" s="12"/>
+      <c r="H59" s="12"/>
+      <c r="I59" s="12"/>
+      <c r="J59" s="12"/>
+      <c r="K59" s="12"/>
+      <c r="L59" s="12"/>
+      <c r="M59" s="12"/>
+      <c r="N59" s="12"/>
     </row>
     <row r="60">
       <c r="A60" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="B60" s="14"/>
-      <c r="C60" s="14"/>
-      <c r="D60" s="14"/>
-      <c r="E60" s="14"/>
+        <v>77</v>
+      </c>
+      <c r="B60" s="14">
+        <v>4.7</v>
+      </c>
+      <c r="C60" s="14">
+        <v>5.1</v>
+      </c>
+      <c r="D60" s="14">
+        <v>5.3</v>
+      </c>
+      <c r="E60" s="14">
+        <v>4.4</v>
+      </c>
+      <c r="F60" s="13">
+        <v>5.3</v>
+      </c>
+      <c r="G60" s="13">
+        <v>5.3</v>
+      </c>
+      <c r="H60" s="13">
+        <v>5.0</v>
+      </c>
+      <c r="I60" s="13">
+        <v>4.5</v>
+      </c>
+      <c r="J60" s="13">
+        <v>4.1</v>
+      </c>
+      <c r="K60" s="13">
+        <v>3.6</v>
+      </c>
+      <c r="L60" s="13">
+        <v>3.9</v>
+      </c>
+      <c r="M60" s="12"/>
+      <c r="N60" s="12"/>
     </row>
     <row r="61">
       <c r="A61" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="B61" s="13">
-        <v>10.1</v>
-      </c>
-      <c r="C61" s="13">
-        <v>10.9</v>
-      </c>
-      <c r="D61" s="13">
-        <v>14.0</v>
-      </c>
-      <c r="E61" s="13">
-        <v>11.5</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="B61" s="14">
+        <v>4.4</v>
+      </c>
+      <c r="C61" s="14">
+        <v>4.6</v>
+      </c>
+      <c r="D61" s="14">
+        <v>3.4</v>
+      </c>
+      <c r="E61" s="14">
+        <v>4.1</v>
+      </c>
+      <c r="F61" s="13">
+        <v>4.6</v>
+      </c>
+      <c r="G61" s="13">
+        <v>5.1</v>
+      </c>
+      <c r="H61" s="13">
+        <v>4.0</v>
+      </c>
+      <c r="I61" s="13">
+        <v>4.1</v>
+      </c>
+      <c r="J61" s="13">
+        <v>4.3</v>
+      </c>
+      <c r="K61" s="13">
+        <v>3.8</v>
+      </c>
+      <c r="L61" s="13">
+        <v>5.8</v>
+      </c>
+      <c r="M61" s="12"/>
+      <c r="N61" s="12"/>
     </row>
     <row r="62">
       <c r="A62" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="B62" s="13">
-        <v>11.9</v>
-      </c>
-      <c r="C62" s="13">
-        <v>8.5</v>
-      </c>
-      <c r="D62" s="13">
+        <v>79</v>
+      </c>
+      <c r="B62" s="14">
+        <v>4.4</v>
+      </c>
+      <c r="C62" s="14">
+        <v>3.7</v>
+      </c>
+      <c r="D62" s="14">
+        <v>4.6</v>
+      </c>
+      <c r="E62" s="14">
         <v>4.0</v>
       </c>
-      <c r="E62" s="13">
-        <v>10.1</v>
+      <c r="F62" s="13">
+        <v>4.6</v>
+      </c>
+      <c r="G62" s="13">
+        <v>3.7</v>
+      </c>
+      <c r="H62" s="13">
+        <v>4.4</v>
+      </c>
+      <c r="I62" s="13">
+        <v>4.6</v>
+      </c>
+      <c r="J62" s="13">
+        <v>4.4</v>
+      </c>
+      <c r="K62" s="13">
+        <v>5.3</v>
+      </c>
+      <c r="L62" s="13">
+        <v>3.4</v>
+      </c>
+      <c r="M62" s="13">
+        <v>3.3</v>
+      </c>
+      <c r="N62" s="13">
+        <v>3.8</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="B63" s="13">
-        <v>7.8</v>
-      </c>
-      <c r="C63" s="13">
-        <v>7.4</v>
-      </c>
-      <c r="D63" s="13">
-        <v>8.5</v>
-      </c>
-      <c r="E63" s="13">
-        <v>4.8</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="B63" s="14">
+        <v>10.7</v>
+      </c>
+      <c r="C63" s="14">
+        <v>10.0</v>
+      </c>
+      <c r="D63" s="14">
+        <v>9.7</v>
+      </c>
+      <c r="E63" s="14">
+        <v>9.6</v>
+      </c>
+      <c r="F63" s="13">
+        <v>10.4</v>
+      </c>
+      <c r="G63" s="13">
+        <v>10.5</v>
+      </c>
+      <c r="H63" s="13">
+        <v>10.0</v>
+      </c>
+      <c r="I63" s="13">
+        <v>10.5</v>
+      </c>
+      <c r="J63" s="13">
+        <v>10.7</v>
+      </c>
+      <c r="K63" s="13">
+        <v>11.4</v>
+      </c>
+      <c r="L63" s="13">
+        <v>12.6</v>
+      </c>
+      <c r="M63" s="12"/>
+      <c r="N63" s="12"/>
     </row>
     <row r="64">
       <c r="A64" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="B64" s="13">
-        <v>7.3</v>
-      </c>
-      <c r="C64" s="13">
-        <v>13.6</v>
-      </c>
-      <c r="D64" s="13">
-        <v>10.4</v>
-      </c>
-      <c r="E64" s="13">
-        <v>12.4</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="B64" s="14">
+        <v>9.6</v>
+      </c>
+      <c r="C64" s="14">
+        <v>9.1</v>
+      </c>
+      <c r="D64" s="14">
+        <v>8.8</v>
+      </c>
+      <c r="E64" s="14">
+        <v>8.5</v>
+      </c>
+      <c r="F64" s="13">
+        <v>8.6</v>
+      </c>
+      <c r="G64" s="13">
+        <v>8.1</v>
+      </c>
+      <c r="H64" s="13">
+        <v>8.5</v>
+      </c>
+      <c r="I64" s="13">
+        <v>9.6</v>
+      </c>
+      <c r="J64" s="13">
+        <v>7.7</v>
+      </c>
+      <c r="K64" s="13">
+        <v>9.4</v>
+      </c>
+      <c r="L64" s="13">
+        <v>10.1</v>
+      </c>
+      <c r="M64" s="13">
+        <v>10.5</v>
+      </c>
+      <c r="N64" s="12"/>
     </row>
     <row r="65">
       <c r="A65" s="12" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B65" s="13">
-        <v>11.5</v>
+        <v>14.7</v>
       </c>
       <c r="C65" s="13">
-        <v>10.8</v>
+        <v>15.0</v>
       </c>
       <c r="D65" s="13">
-        <v>10.2</v>
+        <v>13.6</v>
       </c>
       <c r="E65" s="13">
-        <v>8.5</v>
-      </c>
+        <v>15.9</v>
+      </c>
+      <c r="F65" s="13">
+        <v>15.4</v>
+      </c>
+      <c r="G65" s="13">
+        <v>15.7</v>
+      </c>
+      <c r="H65" s="13">
+        <v>13.5</v>
+      </c>
+      <c r="I65" s="13">
+        <v>14.2</v>
+      </c>
+      <c r="J65" s="13">
+        <v>14.1</v>
+      </c>
+      <c r="K65" s="12"/>
+      <c r="L65" s="12"/>
+      <c r="M65" s="12"/>
+      <c r="N65" s="12"/>
     </row>
     <row r="66">
       <c r="A66" s="12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B66" s="13">
-        <v>10.9</v>
+        <v>12.4</v>
       </c>
       <c r="C66" s="13">
-        <v>4.9</v>
+        <v>13.8</v>
       </c>
       <c r="D66" s="13">
-        <v>7.3</v>
-      </c>
-      <c r="E66" s="13">
-        <v>6.6</v>
-      </c>
+        <v>13.0</v>
+      </c>
+      <c r="E66" s="12"/>
+      <c r="F66" s="12"/>
+      <c r="G66" s="12"/>
+      <c r="H66" s="12"/>
+      <c r="I66" s="12"/>
+      <c r="J66" s="12"/>
+      <c r="K66" s="12"/>
+      <c r="L66" s="12"/>
+      <c r="M66" s="12"/>
+      <c r="N66" s="12"/>
     </row>
     <row r="67">
       <c r="A67" s="12" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B67" s="13">
-        <v>10.4</v>
+        <v>6.1</v>
       </c>
       <c r="C67" s="13">
-        <v>13.0</v>
+        <v>6.2</v>
       </c>
       <c r="D67" s="13">
-        <v>12.0</v>
+        <v>5.2</v>
       </c>
       <c r="E67" s="13">
-        <v>10.2</v>
-      </c>
+        <v>5.1</v>
+      </c>
+      <c r="F67" s="13">
+        <v>5.1</v>
+      </c>
+      <c r="G67" s="13">
+        <v>5.1</v>
+      </c>
+      <c r="H67" s="13">
+        <v>6.2</v>
+      </c>
+      <c r="I67" s="13">
+        <v>5.8</v>
+      </c>
+      <c r="J67" s="13">
+        <v>5.8</v>
+      </c>
+      <c r="K67" s="13">
+        <v>6.6</v>
+      </c>
+      <c r="L67" s="13">
+        <v>4.7</v>
+      </c>
+      <c r="M67" s="13">
+        <v>5.1</v>
+      </c>
+      <c r="N67" s="12"/>
     </row>
     <row r="68">
       <c r="A68" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="B68" s="15">
-        <v>6.1</v>
+        <v>85</v>
+      </c>
+      <c r="B68" s="13">
+        <v>5.9</v>
       </c>
       <c r="C68" s="13">
-        <v>6.1</v>
+        <v>5.5</v>
       </c>
       <c r="D68" s="13">
+        <v>5.8</v>
+      </c>
+      <c r="E68" s="13">
         <v>5.6</v>
       </c>
-      <c r="E68" s="13">
-        <v>6.6</v>
-      </c>
+      <c r="F68" s="13">
+        <v>5.4</v>
+      </c>
+      <c r="G68" s="13">
+        <v>4.6</v>
+      </c>
+      <c r="H68" s="13">
+        <v>4.3</v>
+      </c>
+      <c r="I68" s="13">
+        <v>4.7</v>
+      </c>
+      <c r="J68" s="13">
+        <v>4.0</v>
+      </c>
+      <c r="K68" s="13">
+        <v>4.2</v>
+      </c>
+      <c r="L68" s="13">
+        <v>4.3</v>
+      </c>
+      <c r="M68" s="12"/>
+      <c r="N68" s="12"/>
     </row>
     <row r="69">
       <c r="A69" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="B69" s="14"/>
-      <c r="C69" s="14"/>
-      <c r="D69" s="14"/>
-      <c r="E69" s="14"/>
+        <v>86</v>
+      </c>
+      <c r="B69" s="13">
+        <v>5.4</v>
+      </c>
+      <c r="C69" s="13">
+        <v>5.2</v>
+      </c>
+      <c r="D69" s="13">
+        <v>5.3</v>
+      </c>
+      <c r="E69" s="13">
+        <v>5.8</v>
+      </c>
+      <c r="F69" s="13">
+        <v>5.8</v>
+      </c>
+      <c r="G69" s="13">
+        <v>5.2</v>
+      </c>
+      <c r="H69" s="13">
+        <v>4.8</v>
+      </c>
+      <c r="I69" s="13">
+        <v>5.5</v>
+      </c>
+      <c r="J69" s="13">
+        <v>4.5</v>
+      </c>
+      <c r="K69" s="13">
+        <v>6.1</v>
+      </c>
+      <c r="L69" s="13">
+        <v>8.7</v>
+      </c>
+      <c r="M69" s="12"/>
+      <c r="N69" s="12"/>
     </row>
     <row r="70">
       <c r="A70" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="B70" s="13">
-        <v>11.5</v>
-      </c>
-      <c r="C70" s="13">
-        <v>13.8</v>
-      </c>
-      <c r="D70" s="14"/>
-      <c r="E70" s="14"/>
+        <v>87</v>
+      </c>
+      <c r="B70" s="12"/>
+      <c r="C70" s="12"/>
+      <c r="D70" s="13">
+        <v>14.2</v>
+      </c>
+      <c r="E70" s="13">
+        <v>14.3</v>
+      </c>
+      <c r="F70" s="13">
+        <v>14.8</v>
+      </c>
+      <c r="G70" s="13">
+        <v>16.7</v>
+      </c>
+      <c r="H70" s="13">
+        <v>17.1</v>
+      </c>
+      <c r="I70" s="13">
+        <v>16.7</v>
+      </c>
+      <c r="J70" s="13">
+        <v>16.3</v>
+      </c>
+      <c r="K70" s="13">
+        <v>16.9</v>
+      </c>
+      <c r="L70" s="12"/>
+      <c r="M70" s="12"/>
+      <c r="N70" s="12"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="B71" s="13">
+        <v>5.7</v>
+      </c>
+      <c r="C71" s="13">
+        <v>5.7</v>
+      </c>
+      <c r="D71" s="13">
+        <v>6.2</v>
+      </c>
+      <c r="E71" s="12">
+        <v>6.6</v>
+      </c>
+      <c r="F71" s="13">
+        <v>5.5</v>
+      </c>
+      <c r="G71" s="13">
+        <v>5.3</v>
+      </c>
+      <c r="H71" s="13">
+        <v>4.9</v>
+      </c>
+      <c r="I71" s="13">
+        <v>6.4</v>
+      </c>
+      <c r="J71" s="13">
+        <v>5.8</v>
+      </c>
+      <c r="K71" s="13">
+        <v>5.2</v>
+      </c>
+      <c r="L71" s="13">
+        <v>5.8</v>
+      </c>
+      <c r="M71" s="12"/>
+      <c r="N71" s="12"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/datastatic/datasets/online/SDG1_Poverty_In_Work_Poverty_Rate_EUROSTAT_2014.xlsx
+++ b/datastatic/datasets/online/SDG1_Poverty_In_Work_Poverty_Rate_EUROSTAT_2014.xlsx
@@ -287,7 +287,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -308,6 +308,11 @@
     <font>
       <u/>
       <color rgb="FF0000FF"/>
+    </font>
+    <font>
+      <sz val="12.0"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="4">
@@ -349,7 +354,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
@@ -395,8 +400,14 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="2" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="2" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="2" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -862,8 +873,10 @@
       <c r="A41" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="B41" s="15"/>
-      <c r="C41" s="15">
+      <c r="B41" s="15">
+        <v>5.2</v>
+      </c>
+      <c r="C41" s="16">
         <v>5.2</v>
       </c>
       <c r="D41" s="14">
@@ -1063,7 +1076,7 @@
       <c r="B46" s="14">
         <v>8.9</v>
       </c>
-      <c r="C46" s="15">
+      <c r="C46" s="16">
         <v>10.5</v>
       </c>
       <c r="D46" s="14">
@@ -2008,7 +2021,9 @@
       <c r="A70" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="B70" s="12"/>
+      <c r="B70" s="17">
+        <v>14.2</v>
+      </c>
       <c r="C70" s="12"/>
       <c r="D70" s="13">
         <v>14.2</v>
